--- a/data/2006_data.xlsx
+++ b/data/2006_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00zh0\OneDrive\CAU\2020-1\자연어처리 및 정보검색\과제\Information-Retrieval\Team project\Sentiment-Analysis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_CFCEBFD7C5092AE212170B2A23DCE475502F127C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CC0C8F4A-9B22-401C-B048-99100174A029}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="17556" yWindow="5136" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="282">
   <si>
     <t>title</t>
   </si>
@@ -25,10 +31,544 @@
     <t>lyric</t>
   </si>
   <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>Temperature</t>
   </si>
   <si>
+    <t>Promiscuous</t>
+  </si>
+  <si>
+    <t>You're Beautiful</t>
+  </si>
+  <si>
+    <t>Hips Don't Lie</t>
+  </si>
+  <si>
+    <t>Unwritten</t>
+  </si>
+  <si>
+    <t>Crazy</t>
+  </si>
+  <si>
+    <t>Ridin'</t>
+  </si>
+  <si>
+    <t>SexyBack</t>
+  </si>
+  <si>
+    <t>Check On It</t>
+  </si>
+  <si>
+    <t>Be Without You</t>
+  </si>
+  <si>
+    <t>Grillz</t>
+  </si>
+  <si>
+    <t>Over My Head (Cable Car)</t>
+  </si>
+  <si>
+    <t>Me &amp; U</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Run It!</t>
+  </si>
+  <si>
+    <t>So Sick</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>I Write Sins Not Tragedies</t>
+  </si>
+  <si>
+    <t>Move Along</t>
+  </si>
+  <si>
+    <t>London Bridge</t>
+  </si>
+  <si>
+    <t>Dani California</t>
+  </si>
+  <si>
+    <t>Snap Yo Fingers</t>
+  </si>
+  <si>
+    <t>Lean Wit It, Rock Wit It</t>
+  </si>
+  <si>
+    <t>What Hurts The Most</t>
+  </si>
+  <si>
+    <t>How To Save A Life</t>
+  </si>
+  <si>
+    <t>Unfaithful</t>
+  </si>
+  <si>
+    <t>Chasing Cars</t>
+  </si>
+  <si>
+    <t>Lips Of An Angel</t>
+  </si>
+  <si>
+    <t>Everytime We Touch</t>
+  </si>
+  <si>
+    <t>Ain't No Other Man</t>
+  </si>
+  <si>
+    <t>Dance, Dance</t>
+  </si>
+  <si>
+    <t>Gold Digger</t>
+  </si>
+  <si>
+    <t>Money Maker</t>
+  </si>
+  <si>
+    <t>Ms. New Booty</t>
+  </si>
+  <si>
+    <t>(When You Gonna) Give It Up To Me</t>
+  </si>
+  <si>
+    <t>Photograph</t>
+  </si>
+  <si>
+    <t>Because Of You</t>
+  </si>
+  <si>
+    <t>Stickwitu</t>
+  </si>
+  <si>
+    <t>I'm N Luv (Wit A Stripper)</t>
+  </si>
+  <si>
+    <t>My Humps</t>
+  </si>
+  <si>
+    <t>Where'd You Go</t>
+  </si>
+  <si>
+    <t>Yo (Excuse Me Miss)</t>
+  </si>
+  <si>
+    <t>Walk Away</t>
+  </si>
+  <si>
+    <t>Laffy Taffy</t>
+  </si>
+  <si>
+    <t>Dirty Little Secret</t>
+  </si>
+  <si>
+    <t>Savin' Me</t>
+  </si>
+  <si>
+    <t>Don't Forget About Us</t>
+  </si>
+  <si>
+    <t>Sexy Love</t>
+  </si>
+  <si>
+    <t>U And Dat</t>
+  </si>
+  <si>
+    <t>Far Away</t>
+  </si>
+  <si>
+    <t>What's Left Of Me</t>
+  </si>
+  <si>
+    <t>So What</t>
+  </si>
+  <si>
+    <t>Do It To It</t>
+  </si>
+  <si>
+    <t>Black Horse &amp; The Cherry Tree</t>
+  </si>
+  <si>
+    <t>There It Go! (The Whistle Song)</t>
+  </si>
+  <si>
+    <t>Shoulder Lean</t>
+  </si>
+  <si>
+    <t>Unpredictable</t>
+  </si>
+  <si>
+    <t>My Love</t>
+  </si>
+  <si>
+    <t>Shake That</t>
+  </si>
+  <si>
+    <t>Pullin' Me Back</t>
+  </si>
+  <si>
+    <t>Bossy</t>
+  </si>
+  <si>
+    <t>Smack That</t>
+  </si>
+  <si>
+    <t>One Wish</t>
+  </si>
+  <si>
+    <t>Sugar, We're Goin' Down</t>
+  </si>
+  <si>
+    <t>Gimme That</t>
+  </si>
+  <si>
+    <t>I Know You See It</t>
+  </si>
+  <si>
+    <t>Too Little Too Late</t>
+  </si>
+  <si>
+    <t>Touch It</t>
+  </si>
+  <si>
+    <t>Rompe</t>
+  </si>
+  <si>
+    <t>Deja Vu</t>
+  </si>
+  <si>
+    <t>Life Is A Highway</t>
+  </si>
+  <si>
+    <t>Call Me When You're Sober</t>
+  </si>
+  <si>
+    <t>Jesus, Take The Wheel</t>
+  </si>
+  <si>
+    <t>Show Stopper</t>
+  </si>
+  <si>
+    <t>Get Up</t>
+  </si>
+  <si>
+    <t>We Be Burnin'</t>
+  </si>
+  <si>
+    <t>Hate Me</t>
+  </si>
+  <si>
+    <t>You And Me</t>
+  </si>
+  <si>
+    <t>Beep</t>
+  </si>
+  <si>
+    <t>I Think They Like Me</t>
+  </si>
+  <si>
+    <t>Say Goodbye</t>
+  </si>
+  <si>
+    <t>Waiting On The World To Change</t>
+  </si>
+  <si>
+    <t>Soul Survivor</t>
+  </si>
+  <si>
+    <t>Pump It</t>
+  </si>
+  <si>
+    <t>When I'm Gone</t>
+  </si>
+  <si>
+    <t>Hung Up</t>
+  </si>
+  <si>
+    <t>Stay Fly</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>When You're Mad</t>
+  </si>
+  <si>
+    <t>Why You Wanna</t>
+  </si>
+  <si>
+    <t>Stupid Girls</t>
+  </si>
+  <si>
+    <t>Feel Good Inc</t>
+  </si>
+  <si>
+    <t>I'm Sprung</t>
+  </si>
+  <si>
+    <t>Do I Make You Proud</t>
+  </si>
+  <si>
+    <t>For You I Will (Confidence)</t>
+  </si>
+  <si>
     <t>Sean Paul</t>
+  </si>
+  <si>
+    <t>Nelly Furtado Featuring Timbaland</t>
+  </si>
+  <si>
+    <t>James Blunt</t>
+  </si>
+  <si>
+    <t>Shakira Featuring Wyclef Jean</t>
+  </si>
+  <si>
+    <t>Natasha Bedingfield</t>
+  </si>
+  <si>
+    <t>Gnarls Barkley</t>
+  </si>
+  <si>
+    <t>Chamillionaire Featuring Krayzie Bone</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Beyonce Featuring Slim Thug</t>
+  </si>
+  <si>
+    <t>Mary J. Blige</t>
+  </si>
+  <si>
+    <t>Nelly Featuring Paul Wall, Ali &amp; Gipp</t>
+  </si>
+  <si>
+    <t>The Fray</t>
+  </si>
+  <si>
+    <t>Cassie</t>
+  </si>
+  <si>
+    <t>The Pussycat Dolls Featuring Snoop Dogg</t>
+  </si>
+  <si>
+    <t>Chris Brown</t>
+  </si>
+  <si>
+    <t>Ne-Yo</t>
+  </si>
+  <si>
+    <t>Yung Joc</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Panic! At The Disco</t>
+  </si>
+  <si>
+    <t>The All-American Rejects</t>
+  </si>
+  <si>
+    <t>Fergie</t>
+  </si>
+  <si>
+    <t>Red Hot Chili Peppers</t>
+  </si>
+  <si>
+    <t>Lil Jon Featuring E-40 &amp; Sean Paul Of The YoungBloodZ</t>
+  </si>
+  <si>
+    <t>Dem Franchize Boyz Featuring Lil Peanut &amp; Charlay</t>
+  </si>
+  <si>
+    <t>Rascal Flatts</t>
+  </si>
+  <si>
+    <t>Snow Patrol</t>
+  </si>
+  <si>
+    <t>Hinder</t>
+  </si>
+  <si>
+    <t>Cascada</t>
+  </si>
+  <si>
+    <t>Christina Aguilera</t>
+  </si>
+  <si>
+    <t>Fall Out Boy</t>
+  </si>
+  <si>
+    <t>Kanye West Featuring Jamie Foxx</t>
+  </si>
+  <si>
+    <t>Ludacris Featuring Pharrell</t>
+  </si>
+  <si>
+    <t>Bubba Sparxxx Featuring Ying Yang Twins &amp; Mr. ColliPark</t>
+  </si>
+  <si>
+    <t>Sean Paul Featuring Keyshia Cole</t>
+  </si>
+  <si>
+    <t>Nickelback</t>
+  </si>
+  <si>
+    <t>Kelly Clarkson</t>
+  </si>
+  <si>
+    <t>The Pussycat Dolls</t>
+  </si>
+  <si>
+    <t>T-Pain Featuring Mike Jones</t>
+  </si>
+  <si>
+    <t>The Black Eyed Peas</t>
+  </si>
+  <si>
+    <t>Fort Minor Featuring Holly Brook</t>
+  </si>
+  <si>
+    <t>D4L</t>
+  </si>
+  <si>
+    <t>T.I.</t>
+  </si>
+  <si>
+    <t>Mariah Carey</t>
+  </si>
+  <si>
+    <t>E-40 Featuring T-Pain &amp; Kandi Girl</t>
+  </si>
+  <si>
+    <t>Nick Lachey</t>
+  </si>
+  <si>
+    <t>Field Mob Featuring Ciara</t>
+  </si>
+  <si>
+    <t>Cherish Featuring Sean Paul Of The YoungBloodZ</t>
+  </si>
+  <si>
+    <t>KT Tunstall</t>
+  </si>
+  <si>
+    <t>Juelz Santana</t>
+  </si>
+  <si>
+    <t>Young Dro Featuring T.I.</t>
+  </si>
+  <si>
+    <t>Jamie Foxx Featuring Ludacris</t>
+  </si>
+  <si>
+    <t>Justin Timberlake Featuring T.I.</t>
+  </si>
+  <si>
+    <t>Eminem Featuring Nate Dogg</t>
+  </si>
+  <si>
+    <t>Chingy Featuring Tyrese</t>
+  </si>
+  <si>
+    <t>Kelis Featuring Too $hort</t>
+  </si>
+  <si>
+    <t>Jibbs</t>
+  </si>
+  <si>
+    <t>Akon Featuring Eminem</t>
+  </si>
+  <si>
+    <t>Ray J</t>
+  </si>
+  <si>
+    <t>Chris Brown Featuring Lil Wayne</t>
+  </si>
+  <si>
+    <t>Yung Joc Featuring Brandy 'Ms. B.' Hambrick</t>
+  </si>
+  <si>
+    <t>Bon Jovi</t>
+  </si>
+  <si>
+    <t>JoJo</t>
+  </si>
+  <si>
+    <t>Busta Rhymes</t>
+  </si>
+  <si>
+    <t>Daddy Yankee</t>
+  </si>
+  <si>
+    <t>Beyonce Featuring Jay Z</t>
+  </si>
+  <si>
+    <t>Evanescence</t>
+  </si>
+  <si>
+    <t>Carrie Underwood</t>
+  </si>
+  <si>
+    <t>Danity Kane</t>
+  </si>
+  <si>
+    <t>Ciara Featuring Chamillionaire</t>
+  </si>
+  <si>
+    <t>Blue October</t>
+  </si>
+  <si>
+    <t>Lifehouse</t>
+  </si>
+  <si>
+    <t>The Pussycat Dolls Featuring will.i.am</t>
+  </si>
+  <si>
+    <t>Dem Franchize Boyz Featuring Jermaine Dupri, Da Brat &amp; Bow Wow</t>
+  </si>
+  <si>
+    <t>John Mayer</t>
+  </si>
+  <si>
+    <t>Young Jeezy Featuring Akon</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
+    <t>Three 6 Mafia Featuring Young Buck &amp; Eightball &amp; MJG</t>
+  </si>
+  <si>
+    <t>Keyshia Cole</t>
+  </si>
+  <si>
+    <t>P!nk</t>
+  </si>
+  <si>
+    <t>Gorillaz</t>
+  </si>
+  <si>
+    <t>T-Pain</t>
+  </si>
+  <si>
+    <t>Taylor Hicks</t>
+  </si>
+  <si>
+    <t>Teddy Geiger</t>
   </si>
   <si>
     <t>The gal dem Schillaci, Sean da Paul
@@ -95,12 +635,6 @@
 Oh oh!
 Oh oh!
 Oh oh!</t>
-  </si>
-  <si>
-    <t>Promiscuous</t>
-  </si>
-  <si>
-    <t>Nelly Furtado Featuring Timbaland</t>
   </si>
   <si>
     <t>Am I throwin' you off?
@@ -210,18 +744,6 @@
 So we don't gotta play games no more</t>
   </si>
   <si>
-    <t>You're Beautiful</t>
-  </si>
-  <si>
-    <t>James Blunt</t>
-  </si>
-  <si>
-    <t>Hips Don't Lie</t>
-  </si>
-  <si>
-    <t>Shakira Featuring Wyclef Jean</t>
-  </si>
-  <si>
     <t>Ladies up in here tonight
 No fighting (We got the refugees up in here)
 No fightingNo fighting
@@ -309,12 +831,6 @@
 No fighting</t>
   </si>
   <si>
-    <t>Unwritten</t>
-  </si>
-  <si>
-    <t>Natasha Bedingfield</t>
-  </si>
-  <si>
     <t>I am unwritten
 Can't read my mind, I'm undefined
 I'm just beginningThe pen's in my hand, ending unplanned
@@ -388,12 +904,6 @@
 Oh, yeah, yeah</t>
   </si>
   <si>
-    <t>Crazy</t>
-  </si>
-  <si>
-    <t>Gnarls Barkley</t>
-  </si>
-  <si>
     <t>I remember when, I remember
 I remember when I lost my mind
 There was something so pleasant about that placeEven your emotions have an echo in so much space
@@ -430,12 +940,6 @@
 Maybe you're crazy
 Maybe we're crazy
 Probably</t>
-  </si>
-  <si>
-    <t>Ridin'</t>
-  </si>
-  <si>
-    <t>Chamillionaire Featuring Krayzie Bone</t>
   </si>
   <si>
     <t>They see me rollin' They hatin'
@@ -555,12 +1059,6 @@
 Try to catch me ridin' dirty
 Try to catch me ridin' dirty
 Try to catch me ridin' dirty.</t>
-  </si>
-  <si>
-    <t>SexyBack</t>
-  </si>
-  <si>
-    <t>Justin Timberlake</t>
   </si>
   <si>
     <t>Ha
@@ -697,12 +1195,6 @@
 Yes</t>
   </si>
   <si>
-    <t>Check On It</t>
-  </si>
-  <si>
-    <t>Beyonce Featuring Slim Thug</t>
-  </si>
-  <si>
     <t>Swiss beats
 DC, Destiny Child (Slim Thug)You need to stop playing round with all them clowns and the wangstas
 Good girls gotta get down with the gangstas
@@ -771,12 +1263,6 @@
 Dip it, pop it, twerk it, stop it, check on me tonight</t>
   </si>
   <si>
-    <t>Be Without You</t>
-  </si>
-  <si>
-    <t>Mary J. Blige</t>
-  </si>
-  <si>
     <t>I wanna be with you, gotta be with you, need to be with you
 (Oh, oh, oh, oh)
 I wanna be with you, gotta be with you, need to be with you(Oh, oh, oh, oh)
@@ -841,12 +1327,6 @@
 I wanna be with you, gotta be with you, need to be with you
 I wanna be with you, gotta be with you, need to be with you
 I wanna be with you, gotta be with you, need to be with you</t>
-  </si>
-  <si>
-    <t>Grillz</t>
-  </si>
-  <si>
-    <t>Nelly Featuring Paul Wall, Ali &amp; Gipp</t>
   </si>
   <si>
     <t>Rob the jewelry store and tell em make me a grill.
@@ -936,12 +1416,6 @@
 Tha first thing I'm gon say hey...</t>
   </si>
   <si>
-    <t>Over My Head (Cable Car)</t>
-  </si>
-  <si>
-    <t>The Fray</t>
-  </si>
-  <si>
     <t>I never knew
 I never knew that everything was falling through
 That everyone I knew was waiting on a cueTo turn and run when all I needed was the truth
@@ -987,12 +1461,6 @@
 Over my head, over my head
 With eight seconds left in overtime
 She's on your mind, she's on your mind</t>
-  </si>
-  <si>
-    <t>Me &amp; U</t>
-  </si>
-  <si>
-    <t>Cassie</t>
   </si>
   <si>
     <t>Uh
@@ -1059,12 +1527,6 @@
 Uh, I've been waitin' (For your love, I've been waiting)
 Think I'm gonna make that move now (Gonna make a move now)
 Baby, tell me how you like it</t>
-  </si>
-  <si>
-    <t>Buttons</t>
-  </si>
-  <si>
-    <t>The Pussycat Dolls Featuring Snoop Dogg</t>
   </si>
   <si>
     <t>I'm telling you to loosen up my buttons babe (uh huh)
@@ -1140,12 +1602,6 @@
 But I ain't seen nothin' (uh)</t>
   </si>
   <si>
-    <t>Run It!</t>
-  </si>
-  <si>
-    <t>Chris Brown</t>
-  </si>
-  <si>
     <t>Let me talk to you
 Tell you how it is
 I was thinking when I saw that body gotta get shawtyTell her what the young boy gonna do
@@ -1205,12 +1661,6 @@
 Oh, oh, oh, ooh</t>
   </si>
   <si>
-    <t>So Sick</t>
-  </si>
-  <si>
-    <t>Ne-Yo</t>
-  </si>
-  <si>
     <t>Mmmh, mmmh, Yeah (doo, doo, dooo, doo)
 Gotta change my answering machine
 Now that I'm alone'Cause right now, it says that we
@@ -1252,18 +1702,6 @@
 Why can't I turn off the radio?
 Why can't I turn off the radio?
 Why can't I turn off the radio?</t>
-  </si>
-  <si>
-    <t>It's Goin' Down</t>
-  </si>
-  <si>
-    <t>Yung Joc</t>
-  </si>
-  <si>
-    <t>SOS</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
   </si>
   <si>
     <t>La la la la la la la la la la la Oh
@@ -1324,18 +1762,6 @@
 Oh oh</t>
   </si>
   <si>
-    <t>I Write Sins Not Tragedies</t>
-  </si>
-  <si>
-    <t>Panic! At The Disco</t>
-  </si>
-  <si>
-    <t>Move Along</t>
-  </si>
-  <si>
-    <t>The All-American Rejects</t>
-  </si>
-  <si>
     <t>Go ahead as you waste your days with thinking
 When you fall, everyone stands
 Another day and you've had your fill of sinkingWith the life held in your
@@ -1386,12 +1812,6 @@
 We move along (Go on, go on, go on, go on)
 Right back what is wrong
 We move along</t>
-  </si>
-  <si>
-    <t>London Bridge</t>
-  </si>
-  <si>
-    <t>Fergie</t>
   </si>
   <si>
     <t>Oh shit!
@@ -1490,12 +1910,6 @@
 (London London, uh...)</t>
   </si>
   <si>
-    <t>Dani California</t>
-  </si>
-  <si>
-    <t>Red Hot Chili Peppers</t>
-  </si>
-  <si>
     <t>Gettin' born in the state of Mississippi
 Papa was a copper and mama was a hippie
 In Alabama she would swing a hammerPrice you gotta pay when you break the panorama
@@ -1541,12 +1955,6 @@
 Simultaneous release
 California, show your teeth
 She's my priestess, I'm your priest, yeah, yeah</t>
-  </si>
-  <si>
-    <t>Snap Yo Fingers</t>
-  </si>
-  <si>
-    <t>Lil Jon Featuring E-40 &amp; Sean Paul Of The YoungBloodZ</t>
   </si>
   <si>
     <t>What's happenin'? Dis ya boy Lil Jon! BME Clik
@@ -1637,12 +2045,6 @@
 Let me see you do it! Ay! Hey! Hey!</t>
   </si>
   <si>
-    <t>Lean Wit It, Rock Wit It</t>
-  </si>
-  <si>
-    <t>Dem Franchize Boyz Featuring Lil Peanut &amp; Charlay</t>
-  </si>
-  <si>
     <t>Lean wit it, rock wit it
 Lean wit it, rock wit it
 Lean wit it, rock wit itLean wit it, rock wit it
@@ -1721,12 +2123,6 @@
 Lean wit it, rock wit it</t>
   </si>
   <si>
-    <t>What Hurts The Most</t>
-  </si>
-  <si>
-    <t>Rascal Flatts</t>
-  </si>
-  <si>
     <t>I can take the rain on the roof of this empty house
 That don't bother me
 I can take a few tears now and then and just let 'em outI'm not afraid to cry every once in a while even though
@@ -1769,9 +2165,6 @@
 Is what I was trying to do
 Not seeing that loving you
 That's what I was trying to do, ooo</t>
-  </si>
-  <si>
-    <t>How To Save A Life</t>
   </si>
   <si>
     <t>Step one, you say, "We need to talk"
@@ -1825,9 +2218,6 @@
 Had I known how to save a life
 How to save a life
 How to save a life</t>
-  </si>
-  <si>
-    <t>Unfaithful</t>
   </si>
   <si>
     <t>Story of my life
@@ -1896,12 +2286,6 @@
 Aaaaaye</t>
   </si>
   <si>
-    <t>Chasing Cars</t>
-  </si>
-  <si>
-    <t>Snow Patrol</t>
-  </si>
-  <si>
     <t>We'll do it all
 Everything
 On our ownWe don't need
@@ -1945,12 +2329,6 @@
 Would you lie with me and just forget the world?</t>
   </si>
   <si>
-    <t>Lips Of An Angel</t>
-  </si>
-  <si>
-    <t>Hinder</t>
-  </si>
-  <si>
     <t>Honey, why you calling me so late?
 It's kinda of hard to talk right now
 Honey, why you crying? Is everything OK?I got to whisper 'cause I can't be too loud
@@ -1990,12 +2368,6 @@
 But girl, you make it hard to be faithful
 With the lips of an angel
 Honey, why you calling me so late?</t>
-  </si>
-  <si>
-    <t>Everytime We Touch</t>
-  </si>
-  <si>
-    <t>Cascada</t>
   </si>
   <si>
     <t>I still hear your voice
@@ -2044,12 +2416,6 @@
 Can't you feel my heart beat fast?
 I want this to last
 Need you by my side</t>
-  </si>
-  <si>
-    <t>Ain't No Other Man</t>
-  </si>
-  <si>
-    <t>Christina Aguilera</t>
   </si>
   <si>
     <t>Hey, yeah
@@ -2121,12 +2487,6 @@
 Ain't no other man but you</t>
   </si>
   <si>
-    <t>Dance, Dance</t>
-  </si>
-  <si>
-    <t>Fall Out Boy</t>
-  </si>
-  <si>
     <t>She says; she's no good with words but I'm worse
 Barely stuttered out a joke of a romantic stuck to my tongue
 Weighed down with words too over-dramaticTonight it's "It can't get much worse"
@@ -2172,12 +2532,6 @@
 Dance, dance
 Dance, dance
 Dance, dance</t>
-  </si>
-  <si>
-    <t>Gold Digger</t>
-  </si>
-  <si>
-    <t>Kanye West Featuring Jamie Foxx</t>
   </si>
   <si>
     <t>She take my money when I'm in need
@@ -2260,12 +2614,6 @@
 Get down girl, go head get down
 Get down girl, go head
 Let me hear that back</t>
-  </si>
-  <si>
-    <t>Money Maker</t>
-  </si>
-  <si>
-    <t>Ludacris Featuring Pharrell</t>
   </si>
   <si>
     <t>Shake your money maker
@@ -2373,18 +2721,6 @@
 Like, eh, eh, eh</t>
   </si>
   <si>
-    <t>Ms. New Booty</t>
-  </si>
-  <si>
-    <t>Bubba Sparxxx Featuring Ying Yang Twins &amp; Mr. ColliPark</t>
-  </si>
-  <si>
-    <t>(When You Gonna) Give It Up To Me</t>
-  </si>
-  <si>
-    <t>Sean Paul Featuring Keyshia Cole</t>
-  </si>
-  <si>
     <t>Get out my head and into the bed girl...
 Cause you done know, plottin' out the fantasy.
 Hey baby girl and it's you a the key... yo... me go so thenFrom ya look inna mi eye gal me see seh you want me
@@ -2474,12 +2810,6 @@
 Boom, boom, boom boom, ba ba boom, boom, boom boom</t>
   </si>
   <si>
-    <t>Photograph</t>
-  </si>
-  <si>
-    <t>Nickelback</t>
-  </si>
-  <si>
     <t>Look at this photograph
 Every time I do, it makes me laugh
 How did our eyes get so red?And what the hell is on Joey's head?
@@ -2551,12 +2881,6 @@
 Every time I do, it makes me-</t>
   </si>
   <si>
-    <t>Because Of You</t>
-  </si>
-  <si>
-    <t>Kelly Clarkson</t>
-  </si>
-  <si>
     <t>I will not make the same mistakes that you did
 I will not let myself 'cause my heart so much misery
 I will not break the way you did, you fell so hardI've learned the hard way to never let it get that far
@@ -2598,12 +2922,6 @@
 I am afraid
 Because of you
 Because of you</t>
-  </si>
-  <si>
-    <t>Stickwitu</t>
-  </si>
-  <si>
-    <t>The Pussycat Dolls</t>
   </si>
   <si>
     <t>I don't wanna go another day
@@ -2670,12 +2988,6 @@
 I'ma stickwitu, my baby
 Nobody ever made me feel this way
 I'ma stickwitu</t>
-  </si>
-  <si>
-    <t>I'm N Luv (Wit A Stripper)</t>
-  </si>
-  <si>
-    <t>T-Pain Featuring Mike Jones</t>
   </si>
   <si>
     <t>Goddamn, little momma'
@@ -2749,12 +3061,6 @@
 She climbin that pole and I'm in love with a stripper
 She trippin, she playin, she playin
 I'm not goin nowhere girl I'm stayin, I'm in love with a stripper</t>
-  </si>
-  <si>
-    <t>My Humps</t>
-  </si>
-  <si>
-    <t>The Black Eyed Peas</t>
   </si>
   <si>
     <t>What you gonna do with all that junk?
@@ -2863,12 +3169,6 @@
 Uh, on me, on me</t>
   </si>
   <si>
-    <t>Where'd You Go</t>
-  </si>
-  <si>
-    <t>Fort Minor Featuring Holly Brook</t>
-  </si>
-  <si>
     <t>Where'd you go?
 I miss you so
 Seems like it's been foreverThat you've been gone
@@ -2937,12 +3237,6 @@
 Please come back home</t>
   </si>
   <si>
-    <t>Yo (Excuse Me Miss)</t>
-  </si>
-  <si>
-    <t>Walk Away</t>
-  </si>
-  <si>
     <t>You've got your mother and your brother
 Every other undercover telling you what to say
 You think I'm stupid but the truth is that it's CupidBaby, loving you has made me this way
@@ -2978,12 +3272,6 @@
 Hey hey hey hey, just walk away
 If you don't have the answer
 Walk away, walk away, walk away, walk away</t>
-  </si>
-  <si>
-    <t>Laffy Taffy</t>
-  </si>
-  <si>
-    <t>D4L</t>
   </si>
   <si>
     <t>Do It To It Remix by Cherish
@@ -3067,15 +3355,6 @@
 Ay ay ay</t>
   </si>
   <si>
-    <t>What You Know</t>
-  </si>
-  <si>
-    <t>T.I.</t>
-  </si>
-  <si>
-    <t>Dirty Little Secret</t>
-  </si>
-  <si>
     <t>Let me know that I've done wrong
 When I've known this all along
 I go around a time or twoJust to waste my time with you
@@ -3117,9 +3396,6 @@
 Dirty little secret
 Who has to know?
 Who has to know?</t>
-  </si>
-  <si>
-    <t>Savin' Me</t>
   </si>
   <si>
     <t>Prison gates won't open up for me
@@ -3169,12 +3445,6 @@
 And say it for me, say it to me
 And I'll leave this life behind me
 Say it if it's worth saving me</t>
-  </si>
-  <si>
-    <t>Don't Forget About Us</t>
-  </si>
-  <si>
-    <t>Mariah Carey</t>
   </si>
   <si>
     <t>Don't forget about us
@@ -3259,9 +3529,6 @@
 So don't forget about us</t>
   </si>
   <si>
-    <t>Sexy Love</t>
-  </si>
-  <si>
     <t>My sexy love
 (So sexy)She makes the hairs on the back of my neck stand up
 Just one touch and I errupt
@@ -3326,12 +3593,6 @@
 My sexy love
 She makes the hairs on the back of my neck stand up
 Just one touch</t>
-  </si>
-  <si>
-    <t>U And Dat</t>
-  </si>
-  <si>
-    <t>E-40 Featuring T-Pain &amp; Kandi Girl</t>
   </si>
   <si>
     <t>Cruisin Down The Street In My Six-Fo"
@@ -3424,9 +3685,6 @@
 "Get Busy Ya Ya Ya Yall"</t>
   </si>
   <si>
-    <t>Far Away</t>
-  </si>
-  <si>
     <t>This time, this place
 Misused, mistakes
 Too long, too lateWho was I to make you wait?
@@ -3480,12 +3738,6 @@
 Hold on to me and never let me go</t>
   </si>
   <si>
-    <t>What's Left Of Me</t>
-  </si>
-  <si>
-    <t>Nick Lachey</t>
-  </si>
-  <si>
     <t>Watch my life pass me by
 In the rear view mirror
 Pictures frozen in timeAre becoming clearer
@@ -3535,12 +3787,6 @@
 Will you take what's left?
 Will you take what's left of me?
 Take what's left of me</t>
-  </si>
-  <si>
-    <t>So What</t>
-  </si>
-  <si>
-    <t>Field Mob Featuring Ciara</t>
   </si>
   <si>
     <t>Ladies and gentlemen
@@ -3637,18 +3883,6 @@
 So what, so what</t>
   </si>
   <si>
-    <t>Do It To It</t>
-  </si>
-  <si>
-    <t>Cherish Featuring Sean Paul Of The YoungBloodZ</t>
-  </si>
-  <si>
-    <t>Black Horse &amp; The Cherry Tree</t>
-  </si>
-  <si>
-    <t>KT Tunstall</t>
-  </si>
-  <si>
     <t>Well my heart knows me better than I know myself
 So I'm gonna let it do all the talking(Woo hoo, woo hoo)
 I came across a place in the middle of nowhere
@@ -3700,18 +3934,6 @@
 (No no, no, no no no)
 I can't quite get there cause my heart's forsaken me
 (No no)</t>
-  </si>
-  <si>
-    <t>There It Go! (The Whistle Song)</t>
-  </si>
-  <si>
-    <t>Juelz Santana</t>
-  </si>
-  <si>
-    <t>Shoulder Lean</t>
-  </si>
-  <si>
-    <t>Young Dro Featuring T.I.</t>
   </si>
   <si>
     <t>Let me see you bounce right to left and let your shoulder lean
@@ -3787,12 +4009,6 @@
 Just let your shoulder lean, just let your shoulder lean, ay</t>
   </si>
   <si>
-    <t>Unpredictable</t>
-  </si>
-  <si>
-    <t>Jamie Foxx Featuring Ludacris</t>
-  </si>
-  <si>
     <t>Yeah ladies I know you tired of the same old thing,
 Things have become so mundane
 I mean your bedroom is so cold, so cold but I'm here to tell youI got a strategy we 'bout to heat it up.
@@ -3855,12 +4071,6 @@
 Baby
 I'm a make you feel like you never felt,
 Girl all because you let me get unpredictable.</t>
-  </si>
-  <si>
-    <t>My Love</t>
-  </si>
-  <si>
-    <t>Justin Timberlake Featuring T.I.</t>
   </si>
   <si>
     <t>Ain't another woman that can take your spot my-
@@ -3961,12 +4171,6 @@
 Love
 My love
 My love</t>
-  </si>
-  <si>
-    <t>Shake That</t>
-  </si>
-  <si>
-    <t>Eminem Featuring Nate Dogg</t>
   </si>
   <si>
     <t>Shady, Aftermath
@@ -4071,12 +4275,6 @@
 Haha, Nate Dogg</t>
   </si>
   <si>
-    <t>Pullin' Me Back</t>
-  </si>
-  <si>
-    <t>Chingy Featuring Tyrese</t>
-  </si>
-  <si>
     <t>Every time I try to leave
 Something keeps pullin' me back, me back
 Tellin' me I need you in my lifeEvery time I try to go
@@ -4161,12 +4359,6 @@
 It was meant to be, you were meant for me
 So that means we gotta make it work
 Said, we gotta make it work, baby</t>
-  </si>
-  <si>
-    <t>Bossy</t>
-  </si>
-  <si>
-    <t>Kelis Featuring Too $hort</t>
   </si>
   <si>
     <t>Aye Yo...
@@ -4277,18 +4469,6 @@
 Uh uh...</t>
   </si>
   <si>
-    <t>Chain Hang Low</t>
-  </si>
-  <si>
-    <t>Jibbs</t>
-  </si>
-  <si>
-    <t>Smack That</t>
-  </si>
-  <si>
-    <t>Akon Featuring Eminem</t>
-  </si>
-  <si>
     <t>Shady, Konvict, Upfront
 Akon, Slim Shady
 I see the one, 'cause she be that lady, hey!I feel you creeping up, I can see it from my shadow
@@ -4374,12 +4554,6 @@
 Smack that, oh ooh</t>
   </si>
   <si>
-    <t>One Wish</t>
-  </si>
-  <si>
-    <t>Ray J</t>
-  </si>
-  <si>
     <t>Damn baby
 Just don't understand where we went wrong
 I gave you my heartI gave you my soul
@@ -4464,9 +4638,6 @@
 One wish</t>
   </si>
   <si>
-    <t>Sugar, We're Goin' Down</t>
-  </si>
-  <si>
     <t>Am I more than you bargained for yet?
 I've been dying to tell you anything you want to hear
 'Cause that's just who I am this weekLie in the grass, next to the mausoleum
@@ -4514,12 +4685,6 @@
 And sugar, we're going down swinging
 I'll be your number one with a bullet
 A loaded gun complex, cock it and pull it</t>
-  </si>
-  <si>
-    <t>Gimme That</t>
-  </si>
-  <si>
-    <t>Chris Brown Featuring Lil Wayne</t>
   </si>
   <si>
     <t>Storch (oh)
@@ -4581,12 +4746,6 @@
 Yeah ha
 Yeah ma don't be frontin' like you don't know what's goin' on
 Aight, yeah</t>
-  </si>
-  <si>
-    <t>I Know You See It</t>
-  </si>
-  <si>
-    <t>Yung Joc Featuring Brandy 'Ms. B.' Hambrick</t>
   </si>
   <si>
     <t>Inny meeny minny mo
@@ -4658,18 +4817,6 @@
 Im like inny meeny minny mo
 How many niggas from the club wont go
 (I know you see it, i know you see it)</t>
-  </si>
-  <si>
-    <t>Who Says You Can't Go Home</t>
-  </si>
-  <si>
-    <t>Bon Jovi</t>
-  </si>
-  <si>
-    <t>Too Little Too Late</t>
-  </si>
-  <si>
-    <t>JoJo</t>
   </si>
   <si>
     <t>Yeah, yeah
@@ -4751,12 +4898,6 @@
 To be real
 It doesn't matter anyway
 (You know it's just too little too late)</t>
-  </si>
-  <si>
-    <t>Touch It</t>
-  </si>
-  <si>
-    <t>Busta Rhymes</t>
   </si>
   <si>
     <t>Touch it, bring it, babe, watch it
@@ -4865,12 +5006,6 @@
 Turn it, leave it, stop, format it</t>
   </si>
   <si>
-    <t>Rompe</t>
-  </si>
-  <si>
-    <t>Daddy Yankee</t>
-  </si>
-  <si>
     <t>Los capos están ready, las mamis están ready
 Y en la calle estamos ready, yeah-yeah, andamos ready
 Los barrios están ready, one, two, get ready (Come on)Rompe, rompe, rompe, bien guilla'o
@@ -4920,12 +5055,6 @@
 Rompe, rompe, rompe, the way she moves, ella lo-
 Rompe, rompe, rompe, break it down
 (Let's go)</t>
-  </si>
-  <si>
-    <t>Deja Vu</t>
-  </si>
-  <si>
-    <t>Beyonce Featuring Jay Z</t>
   </si>
   <si>
     <t>Bass (Uh)
@@ -5012,9 +5141,6 @@
 Baby, I swear it's Déjà Vu</t>
   </si>
   <si>
-    <t>Life Is A Highway</t>
-  </si>
-  <si>
     <t>Life's like a road that you travel on
 When there's one day here and the next day gone
 Sometimes you bend, sometimes you standSometimes you turn your back to the wind
@@ -5077,12 +5203,6 @@
 All night long</t>
   </si>
   <si>
-    <t>Call Me When You're Sober</t>
-  </si>
-  <si>
-    <t>Evanescence</t>
-  </si>
-  <si>
     <t>Don't cry to me
 If you loved me
 You would be here with meYou want me
@@ -5121,12 +5241,6 @@
 Don't lie to me
 Just get your things
 I've made up your mind</t>
-  </si>
-  <si>
-    <t>Jesus, Take The Wheel</t>
-  </si>
-  <si>
-    <t>Carrie Underwood</t>
   </si>
   <si>
     <t>She was driving last Friday on her way to Cincinnati on a snow white Christmas Eve
@@ -5169,12 +5283,6 @@
 Jesus, take the wheel
 Oh, take it, take it from me
 Oh, why, oh</t>
-  </si>
-  <si>
-    <t>Show Stopper</t>
-  </si>
-  <si>
-    <t>Danity Kane</t>
   </si>
   <si>
     <t>We in the car, we ride slow
@@ -5266,12 +5374,6 @@
 We show stoppin', we show, show stoppin'
 That's how we keep it poppin', make sure that bass knockin'
 So when you see us ridin' we call it show stoppin'</t>
-  </si>
-  <si>
-    <t>Get Up</t>
-  </si>
-  <si>
-    <t>Ciara Featuring Chamillionaire</t>
   </si>
   <si>
     <t>Uh
@@ -5407,9 +5509,6 @@
 Uh...</t>
   </si>
   <si>
-    <t>We Be Burnin'</t>
-  </si>
-  <si>
     <t>Just gimme di trees and mek we smoke it yo
 (Smoke it yo)
 It don't mek we please so don't provoke it yo(Voke it yo)
@@ -5483,18 +5582,6 @@
 Set we mind at ease we gotta take it slow</t>
   </si>
   <si>
-    <t>Hate Me</t>
-  </si>
-  <si>
-    <t>Blue October</t>
-  </si>
-  <si>
-    <t>You And Me</t>
-  </si>
-  <si>
-    <t>Lifehouse</t>
-  </si>
-  <si>
     <t>What day is it?
 And in what month?
 This clock never seemed so aliveI can't keep up
@@ -5540,12 +5627,6 @@
 What day is it?
 And in what month?
 This clock never seemed so alive</t>
-  </si>
-  <si>
-    <t>Beep</t>
-  </si>
-  <si>
-    <t>The Pussycat Dolls Featuring will.i.am</t>
   </si>
   <si>
     <t>Ha, ha-ha, ha-ha
@@ -5637,12 +5718,6 @@
 'Cause it don't mean a thing if you're looking at my...
 I'm a do my thing while you're playing with your...
 Ha, ha-ha, ha-ha, ha-ha</t>
-  </si>
-  <si>
-    <t>I Think They Like Me</t>
-  </si>
-  <si>
-    <t>Dem Franchize Boyz Featuring Jermaine Dupri, Da Brat &amp; Bow Wow</t>
   </si>
   <si>
     <t>One two three
@@ -5749,9 +5824,6 @@
 Oh I think they like me
 When they heard me on the other one
 So it's only right that I hit you with another one</t>
-  </si>
-  <si>
-    <t>Say Goodbye</t>
   </si>
   <si>
     <t>Look
@@ -5863,12 +5935,6 @@
 Right time to say</t>
   </si>
   <si>
-    <t>Waiting On The World To Change</t>
-  </si>
-  <si>
-    <t>John Mayer</t>
-  </si>
-  <si>
     <t>"One, two, one two three"
 Me and all my friendsWe're all misunderstood
 They say we stand for nothing, and
@@ -5911,12 +5977,6 @@
 Waiting on the world to change
 We keep on waiting (waiting)
 Waiting on the world to change.</t>
-  </si>
-  <si>
-    <t>Soul Survivor</t>
-  </si>
-  <si>
-    <t>Young Jeezy Featuring Akon</t>
   </si>
   <si>
     <t>Convict
@@ -6016,9 +6076,6 @@
 Tryin' to make it to the top for your ass get popped now
 If you a rida, yeah.
 Yea I'ma soul survivor, yeah.</t>
-  </si>
-  <si>
-    <t>Pump It</t>
   </si>
   <si>
     <t>Ha, ha, haaaa
@@ -6142,12 +6199,6 @@
 Right</t>
   </si>
   <si>
-    <t>When I'm Gone</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
     <t>Yeah...
 It's my life...
 In my own words, I guess...Have you ever loved someone so much you'd give an arm for?
@@ -6253,12 +6304,6 @@
 And I didn't feel a thing, so baby
 Don't feel no pain
 Just smile back</t>
-  </si>
-  <si>
-    <t>Hung Up</t>
-  </si>
-  <si>
-    <t>Madonna</t>
   </si>
   <si>
     <t>Time goes by so slowly
@@ -6370,12 +6415,6 @@
 I'm tired of waiting on you</t>
   </si>
   <si>
-    <t>Stay Fly</t>
-  </si>
-  <si>
-    <t>Three 6 Mafia Featuring Young Buck &amp; Eightball &amp; MJG</t>
-  </si>
-  <si>
     <t>We gotta stay fly-i-i-i-i-i-i-i
 Till I-Till I die-ie-ie-ie-ie-ie-ie-ie
 Yeah Remix, new Three 6 Mafia (Yeah!)Dirty South, it's goin' down!
@@ -6471,12 +6510,6 @@
 I gotta stay fly-i-i-i-i-i-i-i</t>
   </si>
   <si>
-    <t>Love</t>
-  </si>
-  <si>
-    <t>Keyshia Cole</t>
-  </si>
-  <si>
     <t>I used think that I wasn't fine enough
 And I used to think I wasn't wild enough
 But I won't waste my time tryin' to figure outWhy you playin' games, what's this all about?
@@ -6511,9 +6544,6 @@
 But I knew once we start kissin' I found
 Love, never knew what I was missin'
 But I knew once we start kissin' I found</t>
-  </si>
-  <si>
-    <t>When You're Mad</t>
   </si>
   <si>
     <t>It's just the cutest thing
@@ -6569,9 +6599,6 @@
 Baby, I don't know why it's like that
 But you're just so damn sexy
 When you're mad</t>
-  </si>
-  <si>
-    <t>Why You Wanna</t>
   </si>
   <si>
     <t>T.I.P. pimpin'
@@ -6655,12 +6682,6 @@
 Hey, hey why u wanna go and do dat dat dat? Ay Ay</t>
   </si>
   <si>
-    <t>Stupid Girls</t>
-  </si>
-  <si>
-    <t>P!nk</t>
-  </si>
-  <si>
     <t>Stupid girl
 Stupid girls
 Stupid girlsMaybe if I act like that
@@ -6737,12 +6758,6 @@
 Stupid girl</t>
   </si>
   <si>
-    <t>Feel Good Inc</t>
-  </si>
-  <si>
-    <t>Gorillaz</t>
-  </si>
-  <si>
     <t>Sha-shabada-shabada, feel good
 Sha-shabada-shabada, feel good
 Sha-shabada-shabada, feel goodSha-shabada-shabada, feel good
@@ -6810,12 +6825,6 @@
 Sha, sha-ba-da, sha-ba-da
 Feel good
 Sha, sha-ba-da, sha-ba-da, feel good</t>
-  </si>
-  <si>
-    <t>I'm Sprung</t>
-  </si>
-  <si>
-    <t>T-Pain</t>
   </si>
   <si>
     <t>I'm sprung
@@ -6890,18 +6899,6 @@
 You do (Do, do, do, do, do)</t>
   </si>
   <si>
-    <t>Do I Make You Proud</t>
-  </si>
-  <si>
-    <t>Taylor Hicks</t>
-  </si>
-  <si>
-    <t>For You I Will (Confidence)</t>
-  </si>
-  <si>
-    <t>Teddy Geiger</t>
-  </si>
-  <si>
     <t>Wandering the streets in a world underneath it all
 Nothing seems to be, nothing tastes as sweet as what I can't haveLike you and the way that you're twisting your hair round your finger
 Tonight I'm not afraid to tell you what I feel about you
@@ -6942,16 +6939,514 @@
 For you I will
 For you I will</t>
   </si>
+  <si>
+    <t>My life is brilliant.
+My life is brilliant.
+My love is pure.
+I saw an angel.
+Of that I'm sure.
+She smiled me on the subway.
+She was with another man.
+But I won't lose no sleep on that,
+'Cause I've got a plan.
+You're beautiful, You're beautiful,
+You're beautiful, it's true.
+I saw your face in a crowded place,
+And I don't know what to do,
+'Cause I'll never be with you.
+Yes, she caught my eye,
+As I walked on by.
+She could see from my face that I was,
+Flying high,
+And I don't think that I'll see her again,
+But we shared a moment that will last till the end.
+You're beautiful, You're beautiful,
+You're beautiful, it's true,
+I saw your face in a crowded place,
+And I don't know what to do,
+'Cause I'll never be with you.
+You're beautiful. You're beautiful.
+You're beautiful, it's true.
+There must be an angel with a smile on her face,
+When she thought up that I should be with you.
+But it's time to face the truth,
+I will never be with you.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's Goin' Down</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dis nigga go by the name of joc (joc?)
+He resides in collegepark (collegepark cp)
+But for right now what we gotta do for y'all (what we gonna do)
+We gotta give y'all a hit (huh)
+Niggaz in my face
+Damn near er' day
+Askin a million questions like
+Joc where ya stay
+Tell 'em collegepark
+Where they chop cars
+In 20 grand spend a grand at the bar
+Just bought a zone jays on my feet
+I'm on that patron so get like me
+69 cutlass wit the bucket seat
+Beat in my trunk ballin just for the freaks
+Catch me in the hood posted at the sto
+Pistol in my lap on the phone countin dough
+If a girl chews let her do her thang
+Just like her mama nice ass, nice brain
+Er'body love me I'm so fly
+Niggaz throw the duces er'time I ride by
+I know ya wonder why
+I'm so cool
+Don't ask me just do what cha do (ok)
+Meet me in the trap its goin down
+Meet me in the mall its goin down
+Meet me in the club its goin down
+Any where ya meet me guaranteed to go down
+Meet me in the trap its goin down
+Meet me in the mall its goin down
+Meet me in the club its goin down
+Any where ya meet me guaranteed to go down
+Numba 2 do the damn thang
+Cubes on my neck pockets full of ben franks
+When I'm in the mall hoes just pause
+I pop a few tags give me that on the wall
+Time to flip the work make the block bump
+Boys from the hood call me black Donald Trump
+Dope boi magic seven days a week
+Numba one record long as Nitti on the beat
+Oh I thank they like me betta yet I know
+Lights camera action when I walk through the door
+Niggaz know my crew we certified stars
+Valet in the front 'bout 35 cars
+Bitches in the back
+Black beamer coups
+Girls likin girls time to recruit
+If ya got a problem say it to my face
+We can knuckle up any time any place
+Meet me in the trap its goin down
+Meet me in the mall its goin down
+Meet me in the club its goin down
+Any where ya meet me guaranteed to go down
+Meet me in the trap its goin down
+Meet me in the mall its goin down
+Meet me in the club its goin down
+Any where ya meet me guaranteed to go down</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whoa whoa
+Do do do do do
+Yeah
+Yeah
+Yo
+Tell me fellas have you seen her? (Seen her)
+It was about five minutes ago
+When I seen the hottest chick, that a young'n ever seen before
+I said "Yo."
+Tell her girls I want to meet her (meet her)
+On second thought that ain't the way to go
+I got to give her game proper
+Spit it so she'll get it, there she is I got to stop her
+Or should I talk about her smile? (It's been said before)
+Or what about her style? (Too obvious)
+I'm out of time
+She's out the door, I got to go for mine
+I think I'll say: "Yo
+I don't know your name but excuse me miss
+I saw you from across the room
+And I got to admit that you got my
+Attention, you're making me want to say yo
+I know you're trying to leave but excuse me miss
+I saved the last dance for you
+How I love to keep you here with me oh baby
+Now shorty grab hold of my hand
+And let's pretend the floor is ours."
+You say you don't really dance
+Don't worry about it
+We'll just one, two, step
+One, two, step
+Now if the music is moving too fast
+Grab my hand a little tighter
+Don't be afraid to move a little closer
+Girl, there is something about you that makes me want to say: "Yo
+I don't know your name but excuse me miss
+I saw you from across the room
+And I got to admit that you got my
+Attention, you're making me wanna say yo
+I know you're tryin' to leave but excuse me miss
+I saved the last dance for you
+How I love to keep you here with me, oh baby."
+I think I'll say: "Yo
+I don't know your name but excuse me miss
+I saw you from across the room
+And I got to admit that you got my attention
+You're making me want to say yo
+I know you're trying to leave but excuse me miss
+I saved the last dance for you
+How I love to keep you here with me oh baby
+I want to be where you are
+Ain't nothing wrong with dancing
+Baby, it's so romantic
+Baby
+I can be in your heart
+So many things I want to tell you
+I think that I should start by saying "Yo
+I don't know your name but excuse me miss
+I saw you from across the room."
+I got to give her game proper
+Spit it, so she get it, there she is - I got to stop her
+"I know you're trying to leave but excuse me miss
+I saved the last dance for you
+How I love to keep you here with me oh baby."
+Now everybody just clap your hands like this (like this)
+Just clap your hands like this (whooo like this)
+And if your shorty is in the house tonight
+Just grab her by the hand homie make her
+Understand y'all was made to dance like this (like this)
+Y'all was made to bounce like this (whoa like this)
+Just let her know she was made for you
+And you want to do everything she want to man
+Whoo!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>What You Know</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aye, boy, don't spill my drink, boy, pull it
+Now listen, everybody report to the bloodclot dance floor
+You love the beat, boy, you know what it is
+Yo, T.I.P., talk to them, bloodclot
+I'm a real nigga, homie, show six figga's on me
+I got a pistol, you don't want it but you know what it is
+Aye, I'm way flyer, my pay is way higher
+If they ever mention sire, boy, you know what it is
+About that drama, you don't want no problems
+I love that llama but you know what it is
+Aye, I get money, all I count is big money
+Because all she get from me, boy, you know what it is
+Yo, T.I.P., let them little rock boys know how you livin'
+The wait is over, here we go again, I'm back in the plate
+Gon' sell another couple mill and take it back to the A
+Gon' take that other couple mill and put it back in the safe
+Find cash for the crew up only back in the lake
+I'm up in cruises two steppin' with the gat in the waist
+T.I. ain't in the streets no more, that what they say
+Don't even try it when you sayin', boy, you have to be great
+You can trust to hit ya in ya face your peeps will have to replace
+That's if you like it nigga and trust me it wont hurt me to take
+A hundred thousand to them Haitians, you'll be murdered today
+I'm a real nigga, homie, show six figga's on me
+I got a pistol, you don't want it but you know what it is
+Aye, I'm way flyer, my pay is way higher
+If they ever mention sire, boy, you know what it is
+About that drama, you don't want no problems
+I love that llama but you know what it is
+Aye, I get money, all I count is big money
+Because all she get from me, boy, you know what it is
+Yo, T.I.P, some boy wanna play our hit
+Let 'em know who the king of the South is
+Talk to them
+Women sweatin' when they see me, I'm apparently hot
+Had the album of the year, nigga, Grammy or not
+Remember, all day I used to stand in the spot
+With 2 revolvers in my pocket pitchin', handlin' rocks
+Right now, judge tappin', there ain't a car I ain't got
+I'm the number one customer at my own car lot
+If you wanna know how much I makin' just imagine a lot
+Even though I pro'lly gettin' more than you'd imagine I got
+Listen close, I need to know if you understand me or not
+If ya disrespectin' me you and your man will get shot
+I'm a real nigga, homie, show six figga's on me
+I got a pistol, you don't want it but you know what it is
+Aye, I'm way flyer, my pay is way higher
+If they ever mention sire, boy, you know what it is
+About that drama, you don't want no problems
+I love that llama but you know what it is
+Aye, I get money, all I count is big money
+Because all she get from me, boy, you know what it is
+Went from the king of the south to the king of the states
+Ridin' in a car you probably never seen in the states
+No idea how much yay I can bring in the States
+Hey, you could get a hundred of 'em for a million today
+Frank Lucas ain't the only one who made a million a day
+But it's the American gangster right here in ya face
+And you don't wanna see P$C on the scene with AK
+You think you running a private, that ain't even the case
+And just because you get away, that don't mean its okay
+You a dead man walking and I mean it, okay
+I'm a real nigga, homie, show six figga's on me
+I got a pistol, you don't want it but you know what it is
+Aye, I'm way flyer, my pay is way higher
+If they ever mention sire, boy, you know what it is
+About that drama, you don't want no problems
+I love that llama but you know what it is
+Aye, I get money, all I count is big money
+Because all she get from me, boy, you know what it is
+Some of dem boys want to talk what dey have done
+They guns sound like popcorn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damn shorty look good and I'm thinkin' 'bout gettin' at her (okay)
+Time to whistle at her
+Aye girl you make my whistle blow
+Top down and I'm at it again
+It's hot now and I'm at it to win
+Nobody want it with me
+Oh Mami come and get me
+Move it till you feel something hard on your back
+If you want it come and get it
+I ain't kiddin' I'm wit it
+So girl, let me see you get low
+Move the thang like a boomerang
+I don't need to ask I proceed to grab her
+Chicks love my G'd up swagger
+Damn shorty look good and I'm thinkin' bout gettin' at
+Time to whistle at her
+Aye girl you make my whistle blow
+Bring it here baby (c'mon)
+Bring it here baby (c'mon)
+Aye girl let me see you get low
+There it go its dipset (ohh)
+There it go Aye Aye Aye
+There it go its dipset (ohh)
+I'm so hot terrific
+So not fair to the other guys that's in it
+Cause no sky's the limit
+I'm doin' my, doin' my, doin' my thing
+So baby keep moving your, moving your, moving your thing
+And that'll keep you in the, you in the, you in the ring (or maybe not)
+Aye girl you make me want to know
+You do it like a pro lil' lady
+If so bring it here let it show lil' lady
+Lets go lil' lady to the crib, to the tele
+Uhm yes we can have a
+Cum-fest girl 'till the sun sets girl (girl)
+But first I gotta get you undressed girl
+So take off dem clothes and get undressed girl
+{*whistling continues*}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chain Hang Low</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beasta!
+Do your chain hang low
+Do it wobble to the flo
+Do it shine in the light
+Is it platinum, Is it gold
+Could you throw it over ya shoulda
+If ya hot, it make ya cold
+Do your chain hang low
+Is that your chain!?
+Bout 24 inches is how low I let it hang
+How bout the ride n let the diamonds smoke off the range
+Just by the chain you can tell the big kid do a stain
+You know the name!
+Is that your chain!?
+Bout 24 inches is how low I let it hang
+How bout the ride n let the diamonds smoke off the range
+Just by the chain you can tell the big kid do a stain
+Im off the chain!
+Yeah, yeah, yeah, yeah
+Im hot kid
+Chains so low you would think that diamonds never stop it
+And it's funny cause you could never stop it
+A bunch of rocks on my hand n I aint even on the block yet
+Show em white gold sorta hold em like my tims
+And a chain hang 24 inches like the rims
+Diamonds all blown up yeah sorta like a pimp
+So when I like hit the ice
+It starts glistenin off the tims (off the tims)
+My chain hang
+All it do is blang blang
+Have blue, have red
+Like my diamonds gang bang
+And dont even think
+We on the same thing
+Charms so heavy they couldn't lift it till the crane came
+Do your chain hang low
+Do it wobble to the flo
+Do it shine in the light
+Is it platinum, Is it gold
+Could you throw it over ya shoulda
+If ya hot, it make ya cold
+Do your chain hang low
+Do your chain hang low
+Do it wobble to the flo
+Do it shine in the light
+Is it platinum, Is it gold
+Could you throw it over ya shoulda
+If ya hot, it make ya cold
+Do your chain hang low
+Yeah, yeah, yeah, yeah
+Im so icy (do yo chain)
+My trunk so heavy that my neck dont like me (do yo chain)
+Go n no no no is not a game kid (do yo chain)
+Cause I throw my chain in the crowd (do do do do do do yo chain)
+Like game B
+Is nothing
+Diamonds is nothing to me
+(Do yo chain) Especially when Im dressing up
+Is just a button to me
+Bling! (could you thro it over yo shoulda) and not to mention my teeth
+Cause they color coordinated
+Complimentin the teeth
+Oh bra (boy) dats!
+So check out my swag
+Diamonds red, white, n blue like the American flag
+Boy (do yo chain) is so colorful
+N see I got that nice screen
+My money spend on jewels
+I call it my ice cream (chain, chain, chain, chain)
+My music give you black eye
+Cuz of the beating
+They think I am a mutant
+The way a boy is beasting (chain, chain, chain, chain)
+I stay when n sometime u call it cheating
+Yeah, my boys always around
+Like is a mee-ting
+Is that your (do yo chain) chain!?
+Bout 24 inches is how low I let it hang (do yo chain)
+How bout the ride n let the diamonds smoke off the range (do yo chain)
+Just by the chain you can tell the big kid do a stain (do yo chain)
+You know the name! (do do do do do do yo chain)
+Is that your chain!?
+Bout 24 inches is how low I let it hang (do yo chain)
+How bout the ride n let the diamonds smoke off the range (do yo chain)
+Just by the chain you can tell the big kid do a stain (do yo chain)
+Im off the chain! (do do do do do do yo chain)
+Do your chain hang low
+Do it wobble to the flo
+Do it shine in the light
+Is it platinum, Is it gold
+Could you throw it over ya shoulda
+If ya hot, it make ya cold
+Do your chain hang low
+Do your chain hang low
+Do it wobble to the flo
+Do it shine in the light
+Is it platinum, Is it gold
+Could you throw it over ya shoulda
+If ya hot, it make ya cold
+Do your chain hang low</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who Says You Can't Go Home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I spent 20 years trying to get out of this place
+I was looking for something I couldn't replace
+I was running away from the only thing I've ever known
+Like a blind dog without a bone
+I was a gypsy lost in the twilight zone
+I hijacked a rainbow and crashed into a pot of gold
+I been there, done that and I ain't looking back on the seeds I've sown
+Saving dimes, spending too much time on the telephone
+Who says you can't go home
+Who says you can't go home
+There's only one place they call me one of their own
+Just a hometown boy, born a rolling stone, who says you can't go home
+Who says you can't go back, been all around the world and as a matter of fact
+There's only one place left I want to go, who says you can't go home
+It's alright, it's alright, it's alright, it's alright, its alright
+I went as far as I could, I tried to find a new face
+There isn't one of these lines that I would erase
+I lived a million miles of memories on that road
+With every step I take I know that I'm not alone
+You take the home from the boy, but not the boy from his home
+These are my streets, the only life I've ever known
+Who says you can't go home
+I been there, done thatand I ain't looking that
+It's been a long long road
+Feels like I never left, that's how the story goes
+It doesn't matter where you are, it doesn't matter where you go
+If it's a million miles aways or just a mile up the road
+Take it in, take it with you when you go
+Who says you can't go home
+It's alright, it's alright, it's alright, it's alright, its alright
+Who says you can't go home
+It's alright, it's alright, it's alright, it's alright, its alright
+Who says you can't go home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I've never been
+The one to raise my hand
+That was not me
+And now that's who I am
+Because of you
+I am standing tall
+My heart is full
+Of endless gratitude
+You were the one
+The one to guide me through
+Now I can see
+And I believe
+It's only just beginning
+This is what we dream about
+But the only question with me now
+Is, do I make you proud?
+Stronger than I've ever been now
+Never be afraid of standing out
+But do I make you proud?
+I guess I've learned
+To question is to grow
+That you still have faith
+Is all I need to know
+I've learned to love
+Myself in spite of me
+And I've learned to walk
+The road that I believe
+This is what we dream about
+But the only question with me now
+Is, do I make you proud?
+Stronger than I've ever been now
+Never be afraid of standing out
+But do I make you proud?
+Everybody needs to rise up
+Everybody needs to be loved
+To be loved
+This is what we dream about
+But the only question with me now
+Is, do I make you, do I make you proud?
+This is what we dream about
+But the only question with me now
+Is, do I make you proud?
+Stronger than I've ever been now
+Never be afraid of standing out
+Do I make you proud?
+This is what we dream about
+But the only question with me now
+Is, do I make you proud?
+Stronger than I've ever been now
+Never be afraid of standing out
+Do I make you proud?
+This is what we dream about
+But the only question with me now
+Is, do I make you, do I make you proud?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6959,8 +7454,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6972,7 +7474,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6980,24 +7482,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7039,7 +7567,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7071,9 +7599,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7105,6 +7651,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7280,1078 +7844,1701 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" t="s">
-        <v>121</v>
-      </c>
       <c r="C43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>123</v>
+        <v>138</v>
+      </c>
+      <c r="D43" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>124</v>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E44">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>126</v>
+        <v>134</v>
+      </c>
+      <c r="D45" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>129</v>
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>131</v>
+        <v>274</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E47">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
         <v>133</v>
       </c>
-      <c r="B49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>135</v>
+      <c r="D49" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="D50" t="s">
+        <v>225</v>
+      </c>
+      <c r="E50">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>140</v>
+        <v>114</v>
+      </c>
+      <c r="D51" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="D52" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" t="s">
+        <v>228</v>
+      </c>
+      <c r="E53">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
         <v>143</v>
       </c>
-      <c r="B53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D54" t="s">
+        <v>229</v>
+      </c>
+      <c r="E54">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="D55" t="s">
+        <v>230</v>
+      </c>
+      <c r="E55">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
         <v>145</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E56">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
         <v>146</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D57" t="s">
+        <v>231</v>
+      </c>
+      <c r="E57">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="D58" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E58">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
         <v>148</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D59" t="s">
+        <v>232</v>
+      </c>
+      <c r="E59">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
         <v>149</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D60" t="s">
+        <v>233</v>
+      </c>
+      <c r="E60">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
+      <c r="D61" t="s">
+        <v>234</v>
+      </c>
+      <c r="E61">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
         <v>151</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D62" t="s">
+        <v>235</v>
+      </c>
+      <c r="E62">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="D63" t="s">
+        <v>236</v>
+      </c>
+      <c r="E63">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
         <v>153</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D64" t="s">
+        <v>237</v>
+      </c>
+      <c r="E64">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" t="s">
         <v>154</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D65" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E65">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="D66" t="s">
+        <v>238</v>
+      </c>
+      <c r="E66">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
         <v>156</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D67" t="s">
+        <v>239</v>
+      </c>
+      <c r="E67">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" t="s">
+        <v>240</v>
+      </c>
+      <c r="E68">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="D69" t="s">
+        <v>241</v>
+      </c>
+      <c r="E69">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
         <v>158</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D70" t="s">
+        <v>242</v>
+      </c>
+      <c r="E70">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>279</v>
+      </c>
+      <c r="C71" t="s">
         <v>159</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D71" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E71">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="D72" t="s">
+        <v>243</v>
+      </c>
+      <c r="E72">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
         <v>161</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D73" t="s">
+        <v>244</v>
+      </c>
+      <c r="E73">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
         <v>162</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D74" t="s">
+        <v>245</v>
+      </c>
+      <c r="E74">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="D75" t="s">
+        <v>246</v>
+      </c>
+      <c r="E75">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" t="s">
+        <v>247</v>
+      </c>
+      <c r="E76">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
         <v>164</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D77" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
         <v>165</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D78" t="s">
+        <v>249</v>
+      </c>
+      <c r="E78">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="D79" t="s">
+        <v>250</v>
+      </c>
+      <c r="E79">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
         <v>167</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D80" t="s">
+        <v>251</v>
+      </c>
+      <c r="E80">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" t="s">
+        <v>252</v>
+      </c>
+      <c r="E81">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
         <v>168</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E82">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="D83" t="s">
+        <v>253</v>
+      </c>
+      <c r="E83">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
         <v>170</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D84" t="s">
+        <v>254</v>
+      </c>
+      <c r="E84">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
         <v>171</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D85" t="s">
+        <v>255</v>
+      </c>
+      <c r="E85">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" t="s">
+        <v>256</v>
+      </c>
+      <c r="E86">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="D87" t="s">
+        <v>257</v>
+      </c>
+      <c r="E87">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
         <v>173</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D88" t="s">
+        <v>258</v>
+      </c>
+      <c r="E88">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>137</v>
+      </c>
+      <c r="D89" t="s">
+        <v>259</v>
+      </c>
+      <c r="E89">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
         <v>174</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D90" t="s">
+        <v>260</v>
+      </c>
+      <c r="E90">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="D91" t="s">
+        <v>261</v>
+      </c>
+      <c r="E91">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
         <v>176</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D92" t="s">
+        <v>262</v>
+      </c>
+      <c r="E92">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="D93" t="s">
+        <v>263</v>
+      </c>
+      <c r="E93">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94" t="s">
+        <v>264</v>
+      </c>
+      <c r="E94">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" t="s">
+        <v>265</v>
+      </c>
+      <c r="E95">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
         <v>178</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D96" t="s">
+        <v>266</v>
+      </c>
+      <c r="E96">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
         <v>179</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D97" t="s">
+        <v>267</v>
+      </c>
+      <c r="E97">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="D98" t="s">
+        <v>268</v>
+      </c>
+      <c r="E98">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
         <v>181</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D99" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E99">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
         <v>182</v>
       </c>
-      <c r="C67" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>184</v>
-      </c>
-      <c r="B68" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>186</v>
-      </c>
-      <c r="B69" t="s">
-        <v>187</v>
-      </c>
-      <c r="C69" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>189</v>
-      </c>
-      <c r="B70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>192</v>
-      </c>
-      <c r="B71" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>194</v>
-      </c>
-      <c r="B72" t="s">
-        <v>195</v>
-      </c>
-      <c r="C72" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>197</v>
-      </c>
-      <c r="B73" t="s">
-        <v>198</v>
-      </c>
-      <c r="C73" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>200</v>
-      </c>
-      <c r="B74" t="s">
-        <v>201</v>
-      </c>
-      <c r="C74" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>203</v>
-      </c>
-      <c r="B75" t="s">
-        <v>204</v>
-      </c>
-      <c r="C75" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>206</v>
-      </c>
-      <c r="B76" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>208</v>
-      </c>
-      <c r="B77" t="s">
-        <v>209</v>
-      </c>
-      <c r="C77" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>211</v>
-      </c>
-      <c r="B78" t="s">
-        <v>212</v>
-      </c>
-      <c r="C78" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>214</v>
-      </c>
-      <c r="B79" t="s">
-        <v>215</v>
-      </c>
-      <c r="C79" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>217</v>
-      </c>
-      <c r="B80" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>220</v>
-      </c>
-      <c r="B81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>222</v>
-      </c>
-      <c r="B82" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>224</v>
-      </c>
-      <c r="B83" t="s">
-        <v>225</v>
-      </c>
-      <c r="C83" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>227</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="D100" t="s">
+        <v>269</v>
+      </c>
+      <c r="E100">
         <v>228</v>
       </c>
-      <c r="C84" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>230</v>
-      </c>
-      <c r="B85" t="s">
-        <v>231</v>
-      </c>
-      <c r="C85" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>233</v>
-      </c>
-      <c r="B86" t="s">
-        <v>45</v>
-      </c>
-      <c r="C86" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>235</v>
-      </c>
-      <c r="B87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C87" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>238</v>
-      </c>
-      <c r="B88" t="s">
-        <v>239</v>
-      </c>
-      <c r="C88" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>241</v>
-      </c>
-      <c r="B89" t="s">
-        <v>118</v>
-      </c>
-      <c r="C89" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>243</v>
-      </c>
-      <c r="B90" t="s">
-        <v>244</v>
-      </c>
-      <c r="C90" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>246</v>
-      </c>
-      <c r="B91" t="s">
-        <v>247</v>
-      </c>
-      <c r="C91" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>249</v>
-      </c>
-      <c r="B92" t="s">
-        <v>250</v>
-      </c>
-      <c r="C92" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>252</v>
-      </c>
-      <c r="B93" t="s">
-        <v>253</v>
-      </c>
-      <c r="C93" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>255</v>
-      </c>
-      <c r="B94" t="s">
-        <v>48</v>
-      </c>
-      <c r="C94" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>257</v>
-      </c>
-      <c r="B95" t="s">
-        <v>130</v>
-      </c>
-      <c r="C95" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>259</v>
-      </c>
-      <c r="B96" t="s">
-        <v>260</v>
-      </c>
-      <c r="C96" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>262</v>
-      </c>
-      <c r="B97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C97" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>265</v>
-      </c>
-      <c r="B98" t="s">
-        <v>266</v>
-      </c>
-      <c r="C98" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>268</v>
-      </c>
-      <c r="B99" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>270</v>
-      </c>
-      <c r="B100" t="s">
-        <v>271</v>
-      </c>
-      <c r="C100" t="s">
-        <v>272</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>